--- a/xlsx/煤_intext.xlsx
+++ b/xlsx/煤_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
   <si>
     <t>煤</t>
   </si>
@@ -29,7 +29,7 @@
     <t>沉积岩</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_煤</t>
+    <t>政策_政策_混合动力车辆_煤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%B1%82</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%B0%AB%E5%8C%96%E5%90%88%E7%89%A9</t>
   </si>
   <si>
-    <t>碳氫化合物</t>
+    <t>碳氢化合物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%94</t>
@@ -137,9 +137,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB</t>
   </si>
   <si>
-    <t>氫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9</t>
   </si>
   <si>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E7%83%9F%E7%85%A4</t>
@@ -197,13 +194,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>發電</t>
+    <t>发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%8A%9B%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>火力發電廠</t>
+    <t>火力发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E7%84%A6%E6%B2%B9</t>
@@ -227,13 +224,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E6%B0%A3</t>
   </si>
   <si>
-    <t>煤氣</t>
+    <t>煤气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E8%85%A6%E6%B2%B9</t>
   </si>
   <si>
-    <t>石腦油</t>
+    <t>石脑油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%85%A4%E6%B0%94</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%88%90</t>
   </si>
   <si>
-    <t>高爐</t>
+    <t>高炉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%88%90%E6%B0%94</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E6%B0%A3</t>
   </si>
   <si>
-    <t>氫氣</t>
+    <t>氢气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AF%E7%83%83</t>
@@ -437,13 +434,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
   </si>
   <si>
-    <t>南韓</t>
+    <t>南韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -461,25 +458,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -521,9 +518,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
   </si>
   <si>
@@ -557,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -569,9 +563,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%85%99%E7%85%A4</t>
   </si>
   <si>
-    <t>無煙煤</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%85%A4%E7%82%AD%E5%B7%A5%E4%B8%9A</t>
   </si>
   <si>
@@ -581,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%85%A4</t>
@@ -605,9 +596,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E6%B0%94</t>
   </si>
   <si>
-    <t>煤气</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E7%9F%BF</t>
   </si>
   <si>
@@ -629,43 +617,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%BA%90%E4%BE%9B%E6%87%89</t>
   </si>
   <si>
-    <t>電源供應</t>
+    <t>电源供应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9F%E7%8E%87</t>
   </si>
   <si>
-    <t>電功率</t>
+    <t>电功率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%A3%93%E9%9B%BB</t>
   </si>
   <si>
-    <t>高壓電</t>
+    <t>高压电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%B5%81%E9%9B%BB</t>
   </si>
   <si>
-    <t>直流電</t>
+    <t>直流电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%B5%81%E9%9B%BB</t>
   </si>
   <si>
-    <t>交流電</t>
+    <t>交流电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E7%9B%B8%E9%9B%BB</t>
   </si>
   <si>
-    <t>單相電</t>
+    <t>单相电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%9B%B8%E9%9B%BB</t>
   </si>
   <si>
-    <t>三相電</t>
+    <t>三相电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E7%8E%87%E5%9B%A0%E6%95%B0</t>
@@ -689,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E6%B5%81</t>
@@ -707,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8D%E5%AE%9A%E5%AE%B9%E9%87%8F</t>
   </si>
   <si>
-    <t>額定容量</t>
+    <t>额定容量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%9B%B8_(%E7%94%B5%E5%AD%A6)</t>
@@ -725,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>天然氣</t>
+    <t>天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
@@ -737,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E9%A0%81%E5%B2%A9</t>
   </si>
   <si>
-    <t>油頁岩</t>
+    <t>油页岩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%B5%E5%B2%A9%E6%B2%B9</t>
@@ -755,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>核動力</t>
+    <t>核动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E7%83%B7%E6%B0%B4%E5%90%88%E7%89%A9</t>
@@ -773,13 +761,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>水力發電</t>
+    <t>水力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E8%83%BD</t>
@@ -791,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1%E8%83%BD</t>
   </si>
   <si>
-    <t>地熱能</t>
+    <t>地热能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E8%83%BD</t>
@@ -821,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B0%B4%E6%BA%AB%E5%B7%AE%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>海水溫差發電</t>
+    <t>海水温差发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B0%B4%E9%B9%BD%E5%B7%AE%E8%83%BD</t>
   </si>
   <si>
-    <t>海水鹽差能</t>
+    <t>海水盐差能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%B4%A8</t>
@@ -851,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>微型發電</t>
+    <t>微型发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E7%94%B5%E8%81%94%E4%BA%A7</t>
@@ -875,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E8%B2%A0%E8%BC%89%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>基本負載發電廠</t>
+    <t>基本负载发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E5%B3%B0%E8%B2%A0%E8%BC%89%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>尖峰負載發電廠</t>
+    <t>尖峰负载发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%A8%E8%83%BD%E6%8A%80%E6%9C%AF</t>
@@ -917,13 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E6%B5%81%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>液流電池</t>
+    <t>液流电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E7%B6%B2%E5%84%B2%E8%83%BD</t>
   </si>
   <si>
-    <t>電網儲能</t>
+    <t>电网储能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9E%E8%BD%AE%E5%82%A8%E8%83%BD</t>
@@ -965,19 +953,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E5%8D%BB%E5%A1%94</t>
   </si>
   <si>
-    <t>冷卻塔</t>
+    <t>冷却塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9B%E7%B7%9A%E9%80%9A%E4%BF%A1</t>
   </si>
   <si>
-    <t>電力線通信</t>
+    <t>电力线通信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%9E%8B%E9%9B%BB%E8%A1%A8</t>
   </si>
   <si>
-    <t>智慧型電表</t>
+    <t>智慧型电表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E8%82%AF%E5%BE%AA%E7%8E%AF</t>
@@ -989,13 +977,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>超導體</t>
+    <t>超导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%B8%E9%9B%BB%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>輸電網路</t>
+    <t>输电网路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transmission_tower</t>
@@ -1007,25 +995,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%A3%93%E7%9B%B4%E6%B5%81%E8%BC%B8%E9%9B%BB</t>
   </si>
   <si>
-    <t>高壓直流輸電</t>
+    <t>高压直流输电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E9%9B%BB%E7%B6%B2</t>
   </si>
   <si>
-    <t>智慧電網</t>
+    <t>智慧电网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E9%9B%BB%E7%B6%B2</t>
   </si>
   <si>
-    <t>超級電網</t>
+    <t>超级电网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E9%9B%BB%E6%89%80</t>
   </si>
   <si>
-    <t>變電所</t>
+    <t>变电所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E5%8E%8B%E5%99%A8</t>
@@ -1043,19 +1031,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%95%A3%E5%BC%8F%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>分散式發電</t>
+    <t>分散式发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93%E9%A9%9F%E9%99%8D</t>
   </si>
   <si>
-    <t>電壓驟降</t>
+    <t>电压骤降</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E9%9B%BB</t>
   </si>
   <si>
-    <t>停電</t>
+    <t>停电</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rolling_blackout</t>
@@ -1067,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%A8%85</t>
   </si>
   <si>
-    <t>生態稅</t>
+    <t>生态税</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Energy_subsidies</t>
@@ -1103,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>節約能源</t>
+    <t>节约能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%80%E8%AE%A1%E9%87%8F%E7%94%B5%E4%BB%B7</t>
@@ -1127,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1145,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2055,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -2093,10 +2081,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -2122,10 +2110,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -2151,10 +2139,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2180,10 +2168,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>8</v>
@@ -2209,10 +2197,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>7</v>
@@ -2238,10 +2226,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2267,10 +2255,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -2296,10 +2284,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2325,10 +2313,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -2354,10 +2342,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>12</v>
@@ -2383,10 +2371,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2412,10 +2400,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -2441,10 +2429,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2470,10 +2458,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>4</v>
@@ -2499,10 +2487,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2528,10 +2516,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2557,10 +2545,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2586,10 +2574,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -2615,10 +2603,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2644,10 +2632,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2673,10 +2661,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2702,10 +2690,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2731,10 +2719,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2760,10 +2748,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2789,10 +2777,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>6</v>
@@ -2818,10 +2806,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2847,10 +2835,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2876,10 +2864,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2905,10 +2893,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2934,10 +2922,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2963,10 +2951,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2992,10 +2980,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>4</v>
@@ -3021,10 +3009,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3050,10 +3038,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3079,10 +3067,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
@@ -3108,10 +3096,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3137,10 +3125,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3166,10 +3154,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3195,10 +3183,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3224,10 +3212,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3253,10 +3241,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3282,10 +3270,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3311,10 +3299,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3340,10 +3328,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3369,10 +3357,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3398,10 +3386,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3427,10 +3415,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -3456,10 +3444,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3485,10 +3473,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3514,10 +3502,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3543,10 +3531,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -3572,10 +3560,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3601,10 +3589,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3630,10 +3618,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3659,10 +3647,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3688,10 +3676,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3717,10 +3705,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>76</v>
+      </c>
+      <c r="F77" t="s">
         <v>77</v>
-      </c>
-      <c r="F77" t="s">
-        <v>78</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3746,10 +3734,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3775,10 +3763,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3804,10 +3792,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3833,10 +3821,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3862,10 +3850,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3891,10 +3879,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3920,10 +3908,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3949,10 +3937,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3978,10 +3966,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -4007,10 +3995,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4036,10 +4024,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4065,10 +4053,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4094,10 +4082,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4123,10 +4111,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4152,10 +4140,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4181,10 +4169,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4210,10 +4198,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4239,10 +4227,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4268,10 +4256,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4297,10 +4285,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -4326,10 +4314,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>32</v>
@@ -4355,10 +4343,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -4384,10 +4372,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="G100" t="n">
         <v>6</v>
@@ -4413,10 +4401,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>9</v>
@@ -4442,10 +4430,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4471,10 +4459,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4500,10 +4488,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -4529,10 +4517,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4558,10 +4546,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4587,10 +4575,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4616,10 +4604,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4645,10 +4633,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4674,10 +4662,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4703,10 +4691,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4732,10 +4720,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4761,10 +4749,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4790,10 +4778,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4819,10 +4807,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4848,10 +4836,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4877,10 +4865,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4906,10 +4894,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4935,10 +4923,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4964,10 +4952,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>60</v>
+      </c>
+      <c r="F120" t="s">
         <v>61</v>
-      </c>
-      <c r="F120" t="s">
-        <v>62</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4993,10 +4981,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5022,10 +5010,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>5</v>
@@ -5051,10 +5039,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5080,10 +5068,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5109,10 +5097,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5138,10 +5126,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5167,10 +5155,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5196,10 +5184,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>7</v>
@@ -5225,10 +5213,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5254,10 +5242,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5283,10 +5271,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5312,10 +5300,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5341,10 +5329,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5370,10 +5358,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5399,10 +5387,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5428,10 +5416,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5457,10 +5445,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5486,10 +5474,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5515,10 +5503,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5544,10 +5532,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5573,10 +5561,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5602,10 +5590,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5631,10 +5619,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5660,10 +5648,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5689,10 +5677,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5718,10 +5706,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5747,10 +5735,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5776,10 +5764,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>5</v>
@@ -5805,10 +5793,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5834,10 +5822,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5863,10 +5851,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5892,10 +5880,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5921,10 +5909,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5950,10 +5938,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5979,10 +5967,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6008,10 +5996,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6037,10 +6025,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6066,10 +6054,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6095,10 +6083,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6124,10 +6112,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6153,10 +6141,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6182,10 +6170,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6211,10 +6199,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6240,10 +6228,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6269,10 +6257,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6298,10 +6286,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6327,10 +6315,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6356,10 +6344,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6385,10 +6373,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6414,10 +6402,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6443,10 +6431,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6472,10 +6460,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6501,10 +6489,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6530,10 +6518,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6559,10 +6547,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6588,10 +6576,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6617,10 +6605,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6646,10 +6634,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6675,10 +6663,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6704,10 +6692,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6733,10 +6721,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6762,10 +6750,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6791,10 +6779,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6820,10 +6808,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6849,10 +6837,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6878,10 +6866,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6907,10 +6895,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6936,10 +6924,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -6965,10 +6953,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6994,10 +6982,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7023,10 +7011,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>

--- a/xlsx/煤_intext.xlsx
+++ b/xlsx/煤_intext.xlsx
@@ -29,7 +29,7 @@
     <t>沉积岩</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_煤</t>
+    <t>体育运动_体育运动_技术_煤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%B1%82</t>
